--- a/Airbnb_Final/ScrapingAirbnb.xlsx
+++ b/Airbnb_Final/ScrapingAirbnb.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/othmaneirhboula/WebScrap/Airbnb_Final/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE1FAFC-E41E-8A4D-9A26-BC8AD00CA08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2266,8 +2272,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2338,18 +2344,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2387,7 +2401,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2421,6 +2435,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2455,9 +2470,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2630,14 +2646,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2675,7 +2697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2713,7 +2735,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2751,7 +2773,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2789,7 +2811,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2849,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2865,7 +2887,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2903,7 +2925,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2941,7 +2963,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2979,7 +3001,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3017,7 +3039,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3055,7 +3077,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3093,7 +3115,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3131,7 +3153,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3169,7 +3191,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3207,7 +3229,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3245,7 +3267,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3283,7 +3305,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3321,7 +3343,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3359,7 +3381,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3397,7 +3419,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3435,7 +3457,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -3473,7 +3495,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3511,7 +3533,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3549,7 +3571,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3587,7 +3609,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3625,7 +3647,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3663,7 +3685,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3701,7 +3723,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3739,7 +3761,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3777,7 +3799,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3815,7 +3837,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3853,7 +3875,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3891,7 +3913,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3929,7 +3951,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -3967,7 +3989,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -4005,7 +4027,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -4043,7 +4065,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -4081,7 +4103,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -4119,7 +4141,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -4157,7 +4179,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -4195,7 +4217,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -4233,7 +4255,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -4271,7 +4293,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -4309,7 +4331,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -4347,7 +4369,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -4385,7 +4407,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -4423,7 +4445,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4461,7 +4483,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4499,7 +4521,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -4537,7 +4559,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -4575,7 +4597,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -4613,7 +4635,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -4651,7 +4673,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -4689,7 +4711,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -4727,7 +4749,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -4765,7 +4787,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4803,7 +4825,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -4841,7 +4863,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -4879,7 +4901,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4917,7 +4939,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4955,7 +4977,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -4993,7 +5015,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -5031,7 +5053,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -5069,7 +5091,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -5107,7 +5129,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -5145,7 +5167,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -5183,7 +5205,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -5221,7 +5243,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -5259,7 +5281,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -5297,7 +5319,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -5335,7 +5357,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -5373,7 +5395,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -5411,7 +5433,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -5449,7 +5471,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -5487,7 +5509,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -5525,7 +5547,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -5563,7 +5585,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -5601,7 +5623,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -5639,7 +5661,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -5677,7 +5699,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -5715,7 +5737,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -5753,7 +5775,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -5791,7 +5813,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -5829,7 +5851,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -5867,7 +5889,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -5905,7 +5927,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -5943,7 +5965,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -5981,7 +6003,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -6019,7 +6041,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -6057,7 +6079,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -6095,7 +6117,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -6133,7 +6155,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -6171,7 +6193,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -6211,183 +6233,183 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="L2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="L3" r:id="rId4"/>
-    <hyperlink ref="L4" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="L5" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="L6" r:id="rId9"/>
-    <hyperlink ref="E7" r:id="rId10"/>
-    <hyperlink ref="L7" r:id="rId11"/>
-    <hyperlink ref="E8" r:id="rId12"/>
-    <hyperlink ref="L8" r:id="rId13"/>
-    <hyperlink ref="E9" r:id="rId14"/>
-    <hyperlink ref="L9" r:id="rId15"/>
-    <hyperlink ref="E10" r:id="rId16"/>
-    <hyperlink ref="L10" r:id="rId17"/>
-    <hyperlink ref="L11" r:id="rId18"/>
-    <hyperlink ref="L12" r:id="rId19"/>
-    <hyperlink ref="E13" r:id="rId20"/>
-    <hyperlink ref="L13" r:id="rId21"/>
-    <hyperlink ref="E14" r:id="rId22"/>
-    <hyperlink ref="L14" r:id="rId23"/>
-    <hyperlink ref="L15" r:id="rId24"/>
-    <hyperlink ref="E16" r:id="rId25"/>
-    <hyperlink ref="L16" r:id="rId26"/>
-    <hyperlink ref="L17" r:id="rId27"/>
-    <hyperlink ref="E18" r:id="rId28"/>
-    <hyperlink ref="L18" r:id="rId29"/>
-    <hyperlink ref="E19" r:id="rId30"/>
-    <hyperlink ref="L19" r:id="rId31"/>
-    <hyperlink ref="E20" r:id="rId32"/>
-    <hyperlink ref="L20" r:id="rId33"/>
-    <hyperlink ref="E21" r:id="rId34"/>
-    <hyperlink ref="L21" r:id="rId35"/>
-    <hyperlink ref="E22" r:id="rId36"/>
-    <hyperlink ref="L22" r:id="rId37"/>
-    <hyperlink ref="E23" r:id="rId38"/>
-    <hyperlink ref="L23" r:id="rId39"/>
-    <hyperlink ref="E24" r:id="rId40"/>
-    <hyperlink ref="L24" r:id="rId41"/>
-    <hyperlink ref="E25" r:id="rId42"/>
-    <hyperlink ref="L25" r:id="rId43"/>
-    <hyperlink ref="E26" r:id="rId44"/>
-    <hyperlink ref="L26" r:id="rId45"/>
-    <hyperlink ref="E27" r:id="rId46"/>
-    <hyperlink ref="L27" r:id="rId47"/>
-    <hyperlink ref="E28" r:id="rId48"/>
-    <hyperlink ref="L28" r:id="rId49"/>
-    <hyperlink ref="E29" r:id="rId50"/>
-    <hyperlink ref="L29" r:id="rId51"/>
-    <hyperlink ref="E30" r:id="rId52"/>
-    <hyperlink ref="L30" r:id="rId53"/>
-    <hyperlink ref="E31" r:id="rId54"/>
-    <hyperlink ref="L31" r:id="rId55"/>
-    <hyperlink ref="E32" r:id="rId56"/>
-    <hyperlink ref="L32" r:id="rId57"/>
-    <hyperlink ref="E33" r:id="rId58"/>
-    <hyperlink ref="L33" r:id="rId59"/>
-    <hyperlink ref="E34" r:id="rId60"/>
-    <hyperlink ref="L34" r:id="rId61"/>
-    <hyperlink ref="E35" r:id="rId62"/>
-    <hyperlink ref="L35" r:id="rId63"/>
-    <hyperlink ref="E36" r:id="rId64"/>
-    <hyperlink ref="L36" r:id="rId65"/>
-    <hyperlink ref="E37" r:id="rId66"/>
-    <hyperlink ref="L37" r:id="rId67"/>
-    <hyperlink ref="E38" r:id="rId68"/>
-    <hyperlink ref="L38" r:id="rId69"/>
-    <hyperlink ref="E39" r:id="rId70"/>
-    <hyperlink ref="L39" r:id="rId71"/>
-    <hyperlink ref="E40" r:id="rId72"/>
-    <hyperlink ref="L40" r:id="rId73"/>
-    <hyperlink ref="E41" r:id="rId74"/>
-    <hyperlink ref="L41" r:id="rId75"/>
-    <hyperlink ref="E42" r:id="rId76"/>
-    <hyperlink ref="L42" r:id="rId77"/>
-    <hyperlink ref="E43" r:id="rId78"/>
-    <hyperlink ref="L43" r:id="rId79"/>
-    <hyperlink ref="E44" r:id="rId80"/>
-    <hyperlink ref="L44" r:id="rId81"/>
-    <hyperlink ref="E45" r:id="rId82"/>
-    <hyperlink ref="L45" r:id="rId83"/>
-    <hyperlink ref="E46" r:id="rId84"/>
-    <hyperlink ref="L46" r:id="rId85"/>
-    <hyperlink ref="E47" r:id="rId86"/>
-    <hyperlink ref="L47" r:id="rId87"/>
-    <hyperlink ref="E48" r:id="rId88"/>
-    <hyperlink ref="L48" r:id="rId89"/>
-    <hyperlink ref="E49" r:id="rId90"/>
-    <hyperlink ref="L49" r:id="rId91"/>
-    <hyperlink ref="E50" r:id="rId92"/>
-    <hyperlink ref="L50" r:id="rId93"/>
-    <hyperlink ref="E51" r:id="rId94"/>
-    <hyperlink ref="L51" r:id="rId95"/>
-    <hyperlink ref="E52" r:id="rId96"/>
-    <hyperlink ref="L52" r:id="rId97"/>
-    <hyperlink ref="E53" r:id="rId98"/>
-    <hyperlink ref="L53" r:id="rId99"/>
-    <hyperlink ref="E54" r:id="rId100"/>
-    <hyperlink ref="L54" r:id="rId101"/>
-    <hyperlink ref="L55" r:id="rId102"/>
-    <hyperlink ref="E56" r:id="rId103"/>
-    <hyperlink ref="L56" r:id="rId104"/>
-    <hyperlink ref="E57" r:id="rId105"/>
-    <hyperlink ref="L57" r:id="rId106"/>
-    <hyperlink ref="E58" r:id="rId107"/>
-    <hyperlink ref="L58" r:id="rId108"/>
-    <hyperlink ref="E59" r:id="rId109"/>
-    <hyperlink ref="L59" r:id="rId110"/>
-    <hyperlink ref="E60" r:id="rId111"/>
-    <hyperlink ref="L60" r:id="rId112"/>
-    <hyperlink ref="E61" r:id="rId113"/>
-    <hyperlink ref="L61" r:id="rId114"/>
-    <hyperlink ref="E62" r:id="rId115"/>
-    <hyperlink ref="L62" r:id="rId116"/>
-    <hyperlink ref="L63" r:id="rId117"/>
-    <hyperlink ref="E64" r:id="rId118"/>
-    <hyperlink ref="L64" r:id="rId119"/>
-    <hyperlink ref="E65" r:id="rId120"/>
-    <hyperlink ref="L65" r:id="rId121"/>
-    <hyperlink ref="L66" r:id="rId122"/>
-    <hyperlink ref="E67" r:id="rId123"/>
-    <hyperlink ref="L67" r:id="rId124"/>
-    <hyperlink ref="E68" r:id="rId125"/>
-    <hyperlink ref="L68" r:id="rId126"/>
-    <hyperlink ref="L69" r:id="rId127"/>
-    <hyperlink ref="E70" r:id="rId128"/>
-    <hyperlink ref="L70" r:id="rId129"/>
-    <hyperlink ref="E71" r:id="rId130"/>
-    <hyperlink ref="L71" r:id="rId131"/>
-    <hyperlink ref="E72" r:id="rId132"/>
-    <hyperlink ref="L72" r:id="rId133"/>
-    <hyperlink ref="E73" r:id="rId134"/>
-    <hyperlink ref="L73" r:id="rId135"/>
-    <hyperlink ref="E74" r:id="rId136"/>
-    <hyperlink ref="L74" r:id="rId137"/>
-    <hyperlink ref="E75" r:id="rId138"/>
-    <hyperlink ref="L75" r:id="rId139"/>
-    <hyperlink ref="E76" r:id="rId140"/>
-    <hyperlink ref="L76" r:id="rId141"/>
-    <hyperlink ref="E77" r:id="rId142"/>
-    <hyperlink ref="L77" r:id="rId143"/>
-    <hyperlink ref="E78" r:id="rId144"/>
-    <hyperlink ref="L78" r:id="rId145"/>
-    <hyperlink ref="E79" r:id="rId146"/>
-    <hyperlink ref="L79" r:id="rId147"/>
-    <hyperlink ref="E80" r:id="rId148"/>
-    <hyperlink ref="L80" r:id="rId149"/>
-    <hyperlink ref="E81" r:id="rId150"/>
-    <hyperlink ref="L81" r:id="rId151"/>
-    <hyperlink ref="E82" r:id="rId152"/>
-    <hyperlink ref="L82" r:id="rId153"/>
-    <hyperlink ref="E83" r:id="rId154"/>
-    <hyperlink ref="L83" r:id="rId155"/>
-    <hyperlink ref="E84" r:id="rId156"/>
-    <hyperlink ref="L84" r:id="rId157"/>
-    <hyperlink ref="E85" r:id="rId158"/>
-    <hyperlink ref="L85" r:id="rId159"/>
-    <hyperlink ref="E86" r:id="rId160"/>
-    <hyperlink ref="L86" r:id="rId161"/>
-    <hyperlink ref="E87" r:id="rId162"/>
-    <hyperlink ref="L87" r:id="rId163"/>
-    <hyperlink ref="E88" r:id="rId164"/>
-    <hyperlink ref="L88" r:id="rId165"/>
-    <hyperlink ref="E89" r:id="rId166"/>
-    <hyperlink ref="L89" r:id="rId167"/>
-    <hyperlink ref="E90" r:id="rId168"/>
-    <hyperlink ref="L90" r:id="rId169"/>
-    <hyperlink ref="E91" r:id="rId170"/>
-    <hyperlink ref="L91" r:id="rId171"/>
-    <hyperlink ref="E92" r:id="rId172"/>
-    <hyperlink ref="L92" r:id="rId173"/>
-    <hyperlink ref="E93" r:id="rId174"/>
-    <hyperlink ref="L93" r:id="rId175"/>
-    <hyperlink ref="E94" r:id="rId176"/>
-    <hyperlink ref="L94" r:id="rId177"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E18" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E19" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E20" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E21" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E22" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E25" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E26" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E27" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E28" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E29" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="L29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E30" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="L30" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E31" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L31" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E32" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L32" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E33" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L33" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E34" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="L34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E35" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="L35" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E36" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="L36" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E37" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E38" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L38" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E39" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="L39" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E40" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="L40" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E41" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="L41" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E42" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="L42" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E43" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="L43" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E44" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="L44" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E45" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="L45" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E46" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="L46" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E47" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="L47" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E48" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="L48" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E49" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="L49" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E50" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="L50" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E51" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="L51" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E52" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="L52" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E53" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="L53" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E54" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="L54" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="L55" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E56" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="L56" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E57" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="L57" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E58" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="L58" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E59" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="L59" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E60" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="L60" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E61" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="L61" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E62" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="L62" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="L63" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E64" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="L64" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E65" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="L65" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="L66" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E67" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="L67" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E68" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="L68" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="L69" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E70" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="L70" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E71" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="L71" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E72" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="L72" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E73" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="L73" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E74" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="L74" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E75" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="L75" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E76" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="L76" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E77" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="L77" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E78" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="L78" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E79" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="L79" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E80" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="L80" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E81" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="L81" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E82" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="L82" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E83" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="L83" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E84" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="L84" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E85" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="L85" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E86" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="L86" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E87" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="L87" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E88" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="L88" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E89" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="L89" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E90" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="L90" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E91" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="L91" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E92" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="L92" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E93" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="L93" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E94" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="L94" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
